--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\SRPbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\2 - Ad Hoc\EPS\eps-us-2.1.0\InputData\trans\SRPbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1911C4-ACC9-48DC-8478-29DA285D1462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="10710"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SRPbVT" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>SRPbVT Separately Regulated Pollutants by Vehicle Type</t>
   </si>
@@ -33,42 +40,12 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>On-Road Vehicles</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>https://www.epa.gov/criteria-air-pollutants/naaqs-table</t>
-  </si>
-  <si>
-    <t>NAAQS Table</t>
-  </si>
-  <si>
-    <t>Ships</t>
-  </si>
-  <si>
-    <t>undated (current as of 2018)</t>
-  </si>
-  <si>
     <t>Aircraft</t>
   </si>
   <si>
-    <t>https://www.epa.gov/regulations-emissions-vehicles-and-engines/regulations-emissions-aircraft</t>
-  </si>
-  <si>
-    <t>Regulations for Emissions from Aircraft</t>
-  </si>
-  <si>
-    <t>Rail</t>
-  </si>
-  <si>
-    <t>Regulations for Emissions from Locomotives</t>
-  </si>
-  <si>
     <t>Although VOCs are not specifically named as a criteria pollutant, ozone is names, and ozone is formed from</t>
   </si>
   <si>
@@ -144,27 +121,9 @@
     <t>the reaction of NOx/NO2 and VOCs in the atmosphere.  In practice, the emissions of NOx/NO2 + VOCs are regulated,</t>
   </si>
   <si>
-    <t>U.S. EPA / Electronic Code of Federal Regulations</t>
-  </si>
-  <si>
     <t>Note that in some sources, VOCs are called HCs (hydrocarbons) or NMHCs (non-methane hydrocarbons).</t>
   </si>
   <si>
-    <t>§1033.101 Exhaust emission standards, Table 1</t>
-  </si>
-  <si>
-    <t>https://www.ecfr.gov/cgi-bin/text-idx?SID=159ba6f126272ea1995c71a43b7af309&amp;mc=true&amp;node=pt40.36.1033&amp;rgn=div5#se40.36.1033_1101</t>
-  </si>
-  <si>
-    <t>https://nepis.epa.gov/Exe/ZyPDF.cgi/P1005ZAD.PDF?Dockey=P1005ZAD.PDF</t>
-  </si>
-  <si>
-    <t>EPA Finalizes More Stringent Standards for Control of Emissions from New Marine Compression-Ignition Engines at or Above 30 Liters per Cylinder</t>
-  </si>
-  <si>
-    <t>Page 3, the three paragraphs under the "New Clean Air Act Standards for Category 3 Engines" subheader</t>
-  </si>
-  <si>
     <t>However, a limit on sulfur in fuel correlates with the amount of fuel burned, so lacking other control technologies,</t>
   </si>
   <si>
@@ -202,13 +161,123 @@
   </si>
   <si>
     <t>(Boolean)</t>
+  </si>
+  <si>
+    <t>COMMISSION REGULATION (EC) No 692/2008 of 18 July 2008 implementing and amending Regulation (EC) No 715/2007 of the European Parliament and of the Council on type-approval of motor vehicles with respect to emissions from light passenger and commercial vehicles (Euro 5 and Euro 6) and on access to vehicle repair and maintenance information</t>
+  </si>
+  <si>
+    <t>The Euro 6 standard sets limits for CO, total hydrocarbons, non-methane hydrocarbons, CH4, NOX, NH3, PM.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32009R0595&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32007R0715&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32009L0030&amp;from=EN</t>
+  </si>
+  <si>
+    <t>The Fuel Quality Directive sets limits for SOx</t>
+  </si>
+  <si>
+    <t>DIRECTIVE 2009/30/EC OF THE EUROPEAN PARLIAMENT AND OF THE COUNCIL of 23 April 2009 amending Directive 98/70/EC as regards the specification of petrol, diesel and gas-oil and introducing a mechanism to monitor and reduce greenhouse gas emissions and amending Council Directive 1999/32/EC as regards the specification of fuel used by inland waterway vessels and repealing Directive 93/12/EEC</t>
+  </si>
+  <si>
+    <t>FQD</t>
+  </si>
+  <si>
+    <t>Transport Fuels</t>
+  </si>
+  <si>
+    <t>Euro 6 - Light Passenger and Commercial Vehicles</t>
+  </si>
+  <si>
+    <t>Euro 6 - Heavy Duty Vehicles</t>
+  </si>
+  <si>
+    <t>Road Vehicles</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:31994L0063&amp;from=EN</t>
+  </si>
+  <si>
+    <t>European Parliament and Council Directive 94/63/EC of 20 December 1994 on the control of volatile organic compound (VOC) emissions resulting from the storage of petrol and its distribution from terminals to service stations</t>
+  </si>
+  <si>
+    <t>The directive aims at combating air pollution by reducing VOC emissions from operations, installations, vehicles and vessels used for storage, loading and transport of petrol from one terminal to another, or from a terminal to a service station. The directive does not cover the refuelling of vehicles at service stations.</t>
+  </si>
+  <si>
+    <t>VOC Directive</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/?uri=celex:32016L0802</t>
+  </si>
+  <si>
+    <t>Directive (EU) 2016/802 — reducing the sulphur content of certain liquid fuels</t>
+  </si>
+  <si>
+    <t>This Directive aims to reduce emissions of sulphur dioxide that result from burning certain types of liquid fuels. The directive lays down the maximum permitted sulphur content of: heavy fuel oil, gas oil,
+marine gas oil; and marine diesel oil.</t>
+  </si>
+  <si>
+    <t>Sulpher Content Directive</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=LEGISSUM:240305030202_1&amp;rid=1</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32016R0427&amp;from=EN</t>
+  </si>
+  <si>
+    <t>The Euro 6 standard sets limits for CO, total hydrocarbons, non-methane hydrocarbons, CH4, NOx, PM.</t>
+  </si>
+  <si>
+    <t>Concern is focused on the potential health and environmental effects of air pollution from emissions such as oxides of nitrogen (NOx), volatile organic compounds and particulates. The ICAO technical design standards limit emissions of NOx, carbon monoxide (CO) and unburnt hydrocarbons (HFC).
+Although there is no specific EU legislation in relation to aviation emissions, the general EU legislation establishing limit values for the concerned pollutants (mainly NOx and particulates in the case of aircraft emissions), being  Directive 2008/50/EC on ambient air quality and cleaner air for Europe  and developing legislation, applies at and around airports just as they do everywhere else in the EU.
+Likewise, in February 2016, the ICAO developed a CO 2 standard for aircraft with the support of the CAEP. This Standard is a key element of the ICAO’s "basket of measures" aimed at tackling the impact of international aviation on climate change. Compliance with these requirements will become a pre-requisite for the issuance of an aircraft or aircraft engine EASA Type Certificate, which is required to operate aircraft. The standard will be applicable as of 2020.</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/transport/modes/air/environment/air_quality_en</t>
+  </si>
+  <si>
+    <t>Rail and Ships</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/environment/air/pdf/air.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/environment/air/sources/road.htm</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/growth/sectors/automotive/environment-protection/non-road-mobile-machinery_en</t>
+  </si>
+  <si>
+    <t>Additional Resources</t>
+  </si>
+  <si>
+    <t>The Directive sets emission limit values for CO, HC, NOx, and particulate matter. The main method
+of controlling emissions under the Directive is through the system of engine type-approval, a system
+that has stood the test of time for approvals for road vehicles and their components. A new element
+introduced to the engine type-approval regime by this Directive is the approval of a parent engine on
+behalf of a group of engines (engine family) built using similar components according to similar
+construction principles.</t>
+  </si>
+  <si>
+    <t>NRMM Regulation</t>
+  </si>
+  <si>
+    <t>Regulation (EU) 2016/1628 on requirements relating to gaseous and particulate pollutant emission limits and type-approval for internal combustion engines for non-road mobile machinery.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32016R1628&amp;from=EN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +289,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,19 +325,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,323 +620,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="101.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>32</v>
+      <c r="A53" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>33</v>
+      <c r="A55" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{1159A5F0-0647-4C80-A557-F7505E4AB132}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{7F76F2D3-8277-4B1D-92F6-17232F2A421B}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{F2C88FDA-A370-4718-9244-385D3E42086B}"/>
+    <hyperlink ref="B27" r:id="rId4" xr:uid="{AC1C46CE-4C34-48DB-AC91-47413735EA1F}"/>
+    <hyperlink ref="B22" r:id="rId5" xr:uid="{7B1C130A-C3B5-4D66-AC89-EFCD7AA94182}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{BB7BC8DE-58CC-4671-BA38-9FC043FB6017}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{2D19B71C-E09A-43CC-9FB4-6A5447106CF8}"/>
+    <hyperlink ref="B31" r:id="rId8" xr:uid="{6D659CF2-4027-4D97-9DC3-EE75F1C5DC8B}"/>
+    <hyperlink ref="B42" r:id="rId9" xr:uid="{9507C0F8-5813-4DC4-AFC9-4FFDE51A137D}"/>
+    <hyperlink ref="B40" r:id="rId10" xr:uid="{F8B541EE-505B-4E57-AC70-0BDB773CA46E}"/>
+    <hyperlink ref="B41" r:id="rId11" xr:uid="{DE5CB99B-C830-481C-A3E1-B79127F0C808}"/>
+    <hyperlink ref="B37" r:id="rId12" xr:uid="{B09F476C-BEC6-4386-A884-5330B2B84522}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -880,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -891,10 +1069,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -921,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -932,16 +1110,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -973,7 +1151,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -994,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1014,7 +1192,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1035,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1055,7 +1233,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\SRPbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\SRPbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -208,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +220,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,18 +256,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -540,19 +551,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="101.140625" customWidth="1"/>
+    <col min="2" max="2" width="101.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -560,234 +573,237 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B26" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -799,15 +815,15 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -848,7 +864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -889,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -930,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -971,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -991,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1012,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1032,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1053,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>57</v>
       </c>

--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\2 - Ad Hoc\EPS\eps-us-2.1.0\InputData\trans\SRPbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\SRPbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1911C4-ACC9-48DC-8478-29DA285D1462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="10710"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SRPbVT" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>SRPbVT Separately Regulated Pollutants by Vehicle Type</t>
   </si>
@@ -40,12 +33,42 @@
     <t>Sources:</t>
   </si>
   <si>
+    <t>On-Road Vehicles</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>U.S. EPA</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/criteria-air-pollutants/naaqs-table</t>
+  </si>
+  <si>
+    <t>NAAQS Table</t>
+  </si>
+  <si>
+    <t>Ships</t>
+  </si>
+  <si>
+    <t>undated (current as of 2018)</t>
+  </si>
+  <si>
     <t>Aircraft</t>
   </si>
   <si>
+    <t>https://www.epa.gov/regulations-emissions-vehicles-and-engines/regulations-emissions-aircraft</t>
+  </si>
+  <si>
+    <t>Regulations for Emissions from Aircraft</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>Regulations for Emissions from Locomotives</t>
+  </si>
+  <si>
     <t>Although VOCs are not specifically named as a criteria pollutant, ozone is names, and ozone is formed from</t>
   </si>
   <si>
@@ -121,9 +144,27 @@
     <t>the reaction of NOx/NO2 and VOCs in the atmosphere.  In practice, the emissions of NOx/NO2 + VOCs are regulated,</t>
   </si>
   <si>
+    <t>U.S. EPA / Electronic Code of Federal Regulations</t>
+  </si>
+  <si>
     <t>Note that in some sources, VOCs are called HCs (hydrocarbons) or NMHCs (non-methane hydrocarbons).</t>
   </si>
   <si>
+    <t>§1033.101 Exhaust emission standards, Table 1</t>
+  </si>
+  <si>
+    <t>https://www.ecfr.gov/cgi-bin/text-idx?SID=159ba6f126272ea1995c71a43b7af309&amp;mc=true&amp;node=pt40.36.1033&amp;rgn=div5#se40.36.1033_1101</t>
+  </si>
+  <si>
+    <t>https://nepis.epa.gov/Exe/ZyPDF.cgi/P1005ZAD.PDF?Dockey=P1005ZAD.PDF</t>
+  </si>
+  <si>
+    <t>EPA Finalizes More Stringent Standards for Control of Emissions from New Marine Compression-Ignition Engines at or Above 30 Liters per Cylinder</t>
+  </si>
+  <si>
+    <t>Page 3, the three paragraphs under the "New Clean Air Act Standards for Category 3 Engines" subheader</t>
+  </si>
+  <si>
     <t>However, a limit on sulfur in fuel correlates with the amount of fuel burned, so lacking other control technologies,</t>
   </si>
   <si>
@@ -161,122 +202,12 @@
   </si>
   <si>
     <t>(Boolean)</t>
-  </si>
-  <si>
-    <t>COMMISSION REGULATION (EC) No 692/2008 of 18 July 2008 implementing and amending Regulation (EC) No 715/2007 of the European Parliament and of the Council on type-approval of motor vehicles with respect to emissions from light passenger and commercial vehicles (Euro 5 and Euro 6) and on access to vehicle repair and maintenance information</t>
-  </si>
-  <si>
-    <t>The Euro 6 standard sets limits for CO, total hydrocarbons, non-methane hydrocarbons, CH4, NOX, NH3, PM.</t>
-  </si>
-  <si>
-    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32009R0595&amp;from=EN</t>
-  </si>
-  <si>
-    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32007R0715&amp;from=EN</t>
-  </si>
-  <si>
-    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32009L0030&amp;from=EN</t>
-  </si>
-  <si>
-    <t>The Fuel Quality Directive sets limits for SOx</t>
-  </si>
-  <si>
-    <t>DIRECTIVE 2009/30/EC OF THE EUROPEAN PARLIAMENT AND OF THE COUNCIL of 23 April 2009 amending Directive 98/70/EC as regards the specification of petrol, diesel and gas-oil and introducing a mechanism to monitor and reduce greenhouse gas emissions and amending Council Directive 1999/32/EC as regards the specification of fuel used by inland waterway vessels and repealing Directive 93/12/EEC</t>
-  </si>
-  <si>
-    <t>FQD</t>
-  </si>
-  <si>
-    <t>Transport Fuels</t>
-  </si>
-  <si>
-    <t>Euro 6 - Light Passenger and Commercial Vehicles</t>
-  </si>
-  <si>
-    <t>Euro 6 - Heavy Duty Vehicles</t>
-  </si>
-  <si>
-    <t>Road Vehicles</t>
-  </si>
-  <si>
-    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:31994L0063&amp;from=EN</t>
-  </si>
-  <si>
-    <t>European Parliament and Council Directive 94/63/EC of 20 December 1994 on the control of volatile organic compound (VOC) emissions resulting from the storage of petrol and its distribution from terminals to service stations</t>
-  </si>
-  <si>
-    <t>The directive aims at combating air pollution by reducing VOC emissions from operations, installations, vehicles and vessels used for storage, loading and transport of petrol from one terminal to another, or from a terminal to a service station. The directive does not cover the refuelling of vehicles at service stations.</t>
-  </si>
-  <si>
-    <t>VOC Directive</t>
-  </si>
-  <si>
-    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/?uri=celex:32016L0802</t>
-  </si>
-  <si>
-    <t>Directive (EU) 2016/802 — reducing the sulphur content of certain liquid fuels</t>
-  </si>
-  <si>
-    <t>This Directive aims to reduce emissions of sulphur dioxide that result from burning certain types of liquid fuels. The directive lays down the maximum permitted sulphur content of: heavy fuel oil, gas oil,
-marine gas oil; and marine diesel oil.</t>
-  </si>
-  <si>
-    <t>Sulpher Content Directive</t>
-  </si>
-  <si>
-    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=LEGISSUM:240305030202_1&amp;rid=1</t>
-  </si>
-  <si>
-    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32016R0427&amp;from=EN</t>
-  </si>
-  <si>
-    <t>The Euro 6 standard sets limits for CO, total hydrocarbons, non-methane hydrocarbons, CH4, NOx, PM.</t>
-  </si>
-  <si>
-    <t>Concern is focused on the potential health and environmental effects of air pollution from emissions such as oxides of nitrogen (NOx), volatile organic compounds and particulates. The ICAO technical design standards limit emissions of NOx, carbon monoxide (CO) and unburnt hydrocarbons (HFC).
-Although there is no specific EU legislation in relation to aviation emissions, the general EU legislation establishing limit values for the concerned pollutants (mainly NOx and particulates in the case of aircraft emissions), being  Directive 2008/50/EC on ambient air quality and cleaner air for Europe  and developing legislation, applies at and around airports just as they do everywhere else in the EU.
-Likewise, in February 2016, the ICAO developed a CO 2 standard for aircraft with the support of the CAEP. This Standard is a key element of the ICAO’s "basket of measures" aimed at tackling the impact of international aviation on climate change. Compliance with these requirements will become a pre-requisite for the issuance of an aircraft or aircraft engine EASA Type Certificate, which is required to operate aircraft. The standard will be applicable as of 2020.</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/transport/modes/air/environment/air_quality_en</t>
-  </si>
-  <si>
-    <t>Rail and Ships</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/environment/air/pdf/air.pdf</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/environment/air/sources/road.htm</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/growth/sectors/automotive/environment-protection/non-road-mobile-machinery_en</t>
-  </si>
-  <si>
-    <t>Additional Resources</t>
-  </si>
-  <si>
-    <t>The Directive sets emission limit values for CO, HC, NOx, and particulate matter. The main method
-of controlling emissions under the Directive is through the system of engine type-approval, a system
-that has stood the test of time for approvals for road vehicles and their components. A new element
-introduced to the engine type-approval regime by this Directive is the approval of a parent engine on
-behalf of a group of engines (engine family) built using similar components according to similar
-construction principles.</t>
-  </si>
-  <si>
-    <t>NRMM Regulation</t>
-  </si>
-  <si>
-    <t>Regulation (EU) 2016/1628 on requirements relating to gaseous and particulate pollutant emission limits and type-approval for internal combustion engines for non-road mobile machinery.</t>
-  </si>
-  <si>
-    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32016R1628&amp;from=EN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,21 +260,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,418 +548,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="101.140625" customWidth="1"/>
+    <col min="2" max="2" width="101.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{1159A5F0-0647-4C80-A557-F7505E4AB132}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{7F76F2D3-8277-4B1D-92F6-17232F2A421B}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{F2C88FDA-A370-4718-9244-385D3E42086B}"/>
-    <hyperlink ref="B27" r:id="rId4" xr:uid="{AC1C46CE-4C34-48DB-AC91-47413735EA1F}"/>
-    <hyperlink ref="B22" r:id="rId5" xr:uid="{7B1C130A-C3B5-4D66-AC89-EFCD7AA94182}"/>
-    <hyperlink ref="B23" r:id="rId6" xr:uid="{BB7BC8DE-58CC-4671-BA38-9FC043FB6017}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{2D19B71C-E09A-43CC-9FB4-6A5447106CF8}"/>
-    <hyperlink ref="B31" r:id="rId8" xr:uid="{6D659CF2-4027-4D97-9DC3-EE75F1C5DC8B}"/>
-    <hyperlink ref="B42" r:id="rId9" xr:uid="{9507C0F8-5813-4DC4-AFC9-4FFDE51A137D}"/>
-    <hyperlink ref="B40" r:id="rId10" xr:uid="{F8B541EE-505B-4E57-AC70-0BDB773CA46E}"/>
-    <hyperlink ref="B41" r:id="rId11" xr:uid="{DE5CB99B-C830-481C-A3E1-B79127F0C808}"/>
-    <hyperlink ref="B37" r:id="rId12" xr:uid="{B09F476C-BEC6-4386-A884-5330B2B84522}"/>
+    <hyperlink ref="B26" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1058,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1067,12 +905,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1099,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1108,18 +946,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1149,9 +987,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1169,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1190,9 +1028,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1210,10 +1048,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1231,9 +1069,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\SRPbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\2 - Ad Hoc\EPS\eps-us-2.1.0\InputData\trans\SRPbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1911C4-ACC9-48DC-8478-29DA285D1462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="10710"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SRPbVT" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>SRPbVT Separately Regulated Pollutants by Vehicle Type</t>
   </si>
@@ -33,42 +40,12 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>On-Road Vehicles</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>https://www.epa.gov/criteria-air-pollutants/naaqs-table</t>
-  </si>
-  <si>
-    <t>NAAQS Table</t>
-  </si>
-  <si>
-    <t>Ships</t>
-  </si>
-  <si>
-    <t>undated (current as of 2018)</t>
-  </si>
-  <si>
     <t>Aircraft</t>
   </si>
   <si>
-    <t>https://www.epa.gov/regulations-emissions-vehicles-and-engines/regulations-emissions-aircraft</t>
-  </si>
-  <si>
-    <t>Regulations for Emissions from Aircraft</t>
-  </si>
-  <si>
-    <t>Rail</t>
-  </si>
-  <si>
-    <t>Regulations for Emissions from Locomotives</t>
-  </si>
-  <si>
     <t>Although VOCs are not specifically named as a criteria pollutant, ozone is names, and ozone is formed from</t>
   </si>
   <si>
@@ -144,27 +121,9 @@
     <t>the reaction of NOx/NO2 and VOCs in the atmosphere.  In practice, the emissions of NOx/NO2 + VOCs are regulated,</t>
   </si>
   <si>
-    <t>U.S. EPA / Electronic Code of Federal Regulations</t>
-  </si>
-  <si>
     <t>Note that in some sources, VOCs are called HCs (hydrocarbons) or NMHCs (non-methane hydrocarbons).</t>
   </si>
   <si>
-    <t>§1033.101 Exhaust emission standards, Table 1</t>
-  </si>
-  <si>
-    <t>https://www.ecfr.gov/cgi-bin/text-idx?SID=159ba6f126272ea1995c71a43b7af309&amp;mc=true&amp;node=pt40.36.1033&amp;rgn=div5#se40.36.1033_1101</t>
-  </si>
-  <si>
-    <t>https://nepis.epa.gov/Exe/ZyPDF.cgi/P1005ZAD.PDF?Dockey=P1005ZAD.PDF</t>
-  </si>
-  <si>
-    <t>EPA Finalizes More Stringent Standards for Control of Emissions from New Marine Compression-Ignition Engines at or Above 30 Liters per Cylinder</t>
-  </si>
-  <si>
-    <t>Page 3, the three paragraphs under the "New Clean Air Act Standards for Category 3 Engines" subheader</t>
-  </si>
-  <si>
     <t>However, a limit on sulfur in fuel correlates with the amount of fuel burned, so lacking other control technologies,</t>
   </si>
   <si>
@@ -202,12 +161,122 @@
   </si>
   <si>
     <t>(Boolean)</t>
+  </si>
+  <si>
+    <t>COMMISSION REGULATION (EC) No 692/2008 of 18 July 2008 implementing and amending Regulation (EC) No 715/2007 of the European Parliament and of the Council on type-approval of motor vehicles with respect to emissions from light passenger and commercial vehicles (Euro 5 and Euro 6) and on access to vehicle repair and maintenance information</t>
+  </si>
+  <si>
+    <t>The Euro 6 standard sets limits for CO, total hydrocarbons, non-methane hydrocarbons, CH4, NOX, NH3, PM.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32009R0595&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32007R0715&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32009L0030&amp;from=EN</t>
+  </si>
+  <si>
+    <t>The Fuel Quality Directive sets limits for SOx</t>
+  </si>
+  <si>
+    <t>DIRECTIVE 2009/30/EC OF THE EUROPEAN PARLIAMENT AND OF THE COUNCIL of 23 April 2009 amending Directive 98/70/EC as regards the specification of petrol, diesel and gas-oil and introducing a mechanism to monitor and reduce greenhouse gas emissions and amending Council Directive 1999/32/EC as regards the specification of fuel used by inland waterway vessels and repealing Directive 93/12/EEC</t>
+  </si>
+  <si>
+    <t>FQD</t>
+  </si>
+  <si>
+    <t>Transport Fuels</t>
+  </si>
+  <si>
+    <t>Euro 6 - Light Passenger and Commercial Vehicles</t>
+  </si>
+  <si>
+    <t>Euro 6 - Heavy Duty Vehicles</t>
+  </si>
+  <si>
+    <t>Road Vehicles</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:31994L0063&amp;from=EN</t>
+  </si>
+  <si>
+    <t>European Parliament and Council Directive 94/63/EC of 20 December 1994 on the control of volatile organic compound (VOC) emissions resulting from the storage of petrol and its distribution from terminals to service stations</t>
+  </si>
+  <si>
+    <t>The directive aims at combating air pollution by reducing VOC emissions from operations, installations, vehicles and vessels used for storage, loading and transport of petrol from one terminal to another, or from a terminal to a service station. The directive does not cover the refuelling of vehicles at service stations.</t>
+  </si>
+  <si>
+    <t>VOC Directive</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/?uri=celex:32016L0802</t>
+  </si>
+  <si>
+    <t>Directive (EU) 2016/802 — reducing the sulphur content of certain liquid fuels</t>
+  </si>
+  <si>
+    <t>This Directive aims to reduce emissions of sulphur dioxide that result from burning certain types of liquid fuels. The directive lays down the maximum permitted sulphur content of: heavy fuel oil, gas oil,
+marine gas oil; and marine diesel oil.</t>
+  </si>
+  <si>
+    <t>Sulpher Content Directive</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=LEGISSUM:240305030202_1&amp;rid=1</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32016R0427&amp;from=EN</t>
+  </si>
+  <si>
+    <t>The Euro 6 standard sets limits for CO, total hydrocarbons, non-methane hydrocarbons, CH4, NOx, PM.</t>
+  </si>
+  <si>
+    <t>Concern is focused on the potential health and environmental effects of air pollution from emissions such as oxides of nitrogen (NOx), volatile organic compounds and particulates. The ICAO technical design standards limit emissions of NOx, carbon monoxide (CO) and unburnt hydrocarbons (HFC).
+Although there is no specific EU legislation in relation to aviation emissions, the general EU legislation establishing limit values for the concerned pollutants (mainly NOx and particulates in the case of aircraft emissions), being  Directive 2008/50/EC on ambient air quality and cleaner air for Europe  and developing legislation, applies at and around airports just as they do everywhere else in the EU.
+Likewise, in February 2016, the ICAO developed a CO 2 standard for aircraft with the support of the CAEP. This Standard is a key element of the ICAO’s "basket of measures" aimed at tackling the impact of international aviation on climate change. Compliance with these requirements will become a pre-requisite for the issuance of an aircraft or aircraft engine EASA Type Certificate, which is required to operate aircraft. The standard will be applicable as of 2020.</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/transport/modes/air/environment/air_quality_en</t>
+  </si>
+  <si>
+    <t>Rail and Ships</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/environment/air/pdf/air.pdf</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/environment/air/sources/road.htm</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/growth/sectors/automotive/environment-protection/non-road-mobile-machinery_en</t>
+  </si>
+  <si>
+    <t>Additional Resources</t>
+  </si>
+  <si>
+    <t>The Directive sets emission limit values for CO, HC, NOx, and particulate matter. The main method
+of controlling emissions under the Directive is through the system of engine type-approval, a system
+that has stood the test of time for approvals for road vehicles and their components. A new element
+introduced to the engine type-approval regime by this Directive is the approval of a parent engine on
+behalf of a group of engines (engine family) built using similar components according to similar
+construction principles.</t>
+  </si>
+  <si>
+    <t>NRMM Regulation</t>
+  </si>
+  <si>
+    <t>Regulation (EU) 2016/1628 on requirements relating to gaseous and particulate pollutant emission limits and type-approval for internal combustion engines for non-road mobile machinery.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32016R1628&amp;from=EN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,18 +329,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,369 +620,459 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="101.1328125" customWidth="1"/>
+    <col min="2" max="2" width="101.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="3">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>35</v>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{1159A5F0-0647-4C80-A557-F7505E4AB132}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{7F76F2D3-8277-4B1D-92F6-17232F2A421B}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{F2C88FDA-A370-4718-9244-385D3E42086B}"/>
+    <hyperlink ref="B27" r:id="rId4" xr:uid="{AC1C46CE-4C34-48DB-AC91-47413735EA1F}"/>
+    <hyperlink ref="B22" r:id="rId5" xr:uid="{7B1C130A-C3B5-4D66-AC89-EFCD7AA94182}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{BB7BC8DE-58CC-4671-BA38-9FC043FB6017}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{2D19B71C-E09A-43CC-9FB4-6A5447106CF8}"/>
+    <hyperlink ref="B31" r:id="rId8" xr:uid="{6D659CF2-4027-4D97-9DC3-EE75F1C5DC8B}"/>
+    <hyperlink ref="B42" r:id="rId9" xr:uid="{9507C0F8-5813-4DC4-AFC9-4FFDE51A137D}"/>
+    <hyperlink ref="B40" r:id="rId10" xr:uid="{F8B541EE-505B-4E57-AC70-0BDB773CA46E}"/>
+    <hyperlink ref="B41" r:id="rId11" xr:uid="{DE5CB99B-C830-481C-A3E1-B79127F0C808}"/>
+    <hyperlink ref="B37" r:id="rId12" xr:uid="{B09F476C-BEC6-4386-A884-5330B2B84522}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -937,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -946,18 +1108,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -987,9 +1149,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1007,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1028,9 +1190,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1048,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1069,9 +1231,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\SRPbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_EI+Agora/trans/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1911C4-ACC9-48DC-8478-29DA285D1462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="10710"/>
+    <workbookView xWindow="-33840" yWindow="-1200" windowWidth="21420" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SRPbVT" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>SRPbVT Separately Regulated Pollutants by Vehicle Type</t>
   </si>
@@ -33,49 +45,144 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>On-Road Vehicles</t>
+    <t>Road Vehicles</t>
+  </si>
+  <si>
+    <t>Euro 6 - Light Passenger and Commercial Vehicles</t>
+  </si>
+  <si>
+    <t>COMMISSION REGULATION (EC) No 692/2008 of 18 July 2008 implementing and amending Regulation (EC) No 715/2007 of the European Parliament and of the Council on type-approval of motor vehicles with respect to emissions from light passenger and commercial vehicles (Euro 5 and Euro 6) and on access to vehicle repair and maintenance information</t>
+  </si>
+  <si>
+    <t>The Euro 6 standard sets limits for CO, total hydrocarbons, non-methane hydrocarbons, CH4, NOx, PM.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32007R0715&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32016R0427&amp;from=EN</t>
+  </si>
+  <si>
+    <t>Euro 6 - Heavy Duty Vehicles</t>
+  </si>
+  <si>
+    <t>The Euro 6 standard sets limits for CO, total hydrocarbons, non-methane hydrocarbons, CH4, NOX, NH3, PM.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32009R0595&amp;from=EN</t>
+  </si>
+  <si>
+    <t>Transport Fuels</t>
+  </si>
+  <si>
+    <t>FQD</t>
+  </si>
+  <si>
+    <t>DIRECTIVE 2009/30/EC OF THE EUROPEAN PARLIAMENT AND OF THE COUNCIL of 23 April 2009 amending Directive 98/70/EC as regards the specification of petrol, diesel and gas-oil and introducing a mechanism to monitor and reduce greenhouse gas emissions and amending Council Directive 1999/32/EC as regards the specification of fuel used by inland waterway vessels and repealing Directive 93/12/EEC</t>
+  </si>
+  <si>
+    <t>The Fuel Quality Directive sets limits for SOx</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32009L0030&amp;from=EN</t>
+  </si>
+  <si>
+    <t>Sulpher Content Directive</t>
+  </si>
+  <si>
+    <t>Directive (EU) 2016/802 — reducing the sulphur content of certain liquid fuels</t>
+  </si>
+  <si>
+    <t>This Directive aims to reduce emissions of sulphur dioxide that result from burning certain types of liquid fuels. The directive lays down the maximum permitted sulphur content of: heavy fuel oil, gas oil,
+marine gas oil; and marine diesel oil.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/?uri=celex:32016L0802</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=LEGISSUM:240305030202_1&amp;rid=1</t>
+  </si>
+  <si>
+    <t>VOC Directive</t>
+  </si>
+  <si>
+    <t>European Parliament and Council Directive 94/63/EC of 20 December 1994 on the control of volatile organic compound (VOC) emissions resulting from the storage of petrol and its distribution from terminals to service stations</t>
+  </si>
+  <si>
+    <t>The directive aims at combating air pollution by reducing VOC emissions from operations, installations, vehicles and vessels used for storage, loading and transport of petrol from one terminal to another, or from a terminal to a service station. The directive does not cover the refuelling of vehicles at service stations.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:31994L0063&amp;from=EN</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Concern is focused on the potential health and environmental effects of air pollution from emissions such as oxides of nitrogen (NOx), volatile organic compounds and particulates. The ICAO technical design standards limit emissions of NOx, carbon monoxide (CO) and unburnt hydrocarbons (HFC).
+Although there is no specific EU legislation in relation to aviation emissions, the general EU legislation establishing limit values for the concerned pollutants (mainly NOx and particulates in the case of aircraft emissions), being  Directive 2008/50/EC on ambient air quality and cleaner air for Europe  and developing legislation, applies at and around airports just as they do everywhere else in the EU.
+Likewise, in February 2016, the ICAO developed a CO 2 standard for aircraft with the support of the CAEP. This Standard is a key element of the ICAO’s "basket of measures" aimed at tackling the impact of international aviation on climate change. Compliance with these requirements will become a pre-requisite for the issuance of an aircraft or aircraft engine EASA Type Certificate, which is required to operate aircraft. The standard will be applicable as of 2020.</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/transport/modes/air/environment/air_quality_en</t>
+  </si>
+  <si>
+    <t>Rail and Ships</t>
+  </si>
+  <si>
+    <t>NRMM Regulation</t>
+  </si>
+  <si>
+    <t>Regulation (EU) 2016/1628 on requirements relating to gaseous and particulate pollutant emission limits and type-approval for internal combustion engines for non-road mobile machinery.</t>
+  </si>
+  <si>
+    <t>The Directive sets emission limit values for CO, HC, NOx, and particulate matter. The main method
+of controlling emissions under the Directive is through the system of engine type-approval, a system
+that has stood the test of time for approvals for road vehicles and their components. A new element
+introduced to the engine type-approval regime by this Directive is the approval of a parent engine on
+behalf of a group of engines (engine family) built using similar components according to similar
+construction principles.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32016R1628&amp;from=EN</t>
+  </si>
+  <si>
+    <t>Additional Resources</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/environment/air/sources/road.htm</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/growth/sectors/automotive/environment-protection/non-road-mobile-machinery_en</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/environment/air/pdf/air.pdf</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>https://www.epa.gov/criteria-air-pollutants/naaqs-table</t>
-  </si>
-  <si>
-    <t>NAAQS Table</t>
-  </si>
-  <si>
-    <t>Ships</t>
-  </si>
-  <si>
-    <t>undated (current as of 2018)</t>
-  </si>
-  <si>
-    <t>Aircraft</t>
-  </si>
-  <si>
-    <t>https://www.epa.gov/regulations-emissions-vehicles-and-engines/regulations-emissions-aircraft</t>
-  </si>
-  <si>
-    <t>Regulations for Emissions from Aircraft</t>
-  </si>
-  <si>
-    <t>Rail</t>
-  </si>
-  <si>
-    <t>Regulations for Emissions from Locomotives</t>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO2 is never considered a separately-regulated pollutant.  This variable's name refers to pollutants that are</t>
+  </si>
+  <si>
+    <t>regulated "separately" from CO2 (irrespective of whether a country uses CO2 or fuel economy standards).</t>
+  </si>
+  <si>
+    <t>VOCs</t>
   </si>
   <si>
     <t>Although VOCs are not specifically named as a criteria pollutant, ozone is names, and ozone is formed from</t>
   </si>
   <si>
+    <t>the reaction of NOx/NO2 and VOCs in the atmosphere.  In practice, the emissions of NOx/NO2 + VOCs are regulated,</t>
+  </si>
+  <si>
     <t>so we consider VOCs to be a separately-regulated pollutant whenever NOx/NO2 is separately-regulated.</t>
   </si>
   <si>
-    <t>VOCs</t>
+    <t>Note that in some sources, VOCs are called HCs (hydrocarbons) or NMHCs (non-methane hydrocarbons).</t>
   </si>
   <si>
     <t>BC, OC</t>
@@ -87,13 +194,43 @@
     <t>PM is separately-regulated.</t>
   </si>
   <si>
-    <t>CO2 is never considered a separately-regulated pollutant.  This variable's name refers to pollutants that are</t>
-  </si>
-  <si>
-    <t>regulated "separately" from CO2 (irrespective of whether a country uses CO2 or fuel economy standards).</t>
-  </si>
-  <si>
-    <t>CO2</t>
+    <t>SOx</t>
+  </si>
+  <si>
+    <t>Where SOx is not regulated directly, it may still be regulated via the allowable sulfur content of diesel fuels.</t>
+  </si>
+  <si>
+    <t>For example, diesel fuel in the U.S. used by non-road modes must be ultra-low sulfur diesel (ULSD, below 15 ppm).</t>
+  </si>
+  <si>
+    <t>(See https://www.epa.gov/diesel-fuel-standards/diesel-fuel-standards-and-rulemakings )</t>
+  </si>
+  <si>
+    <t>However, a limit on sulfur in fuel correlates with the amount of fuel burned, so lacking other control technologies,</t>
+  </si>
+  <si>
+    <t>SOx emissions would scale with fuel use.  Thus, limits on sulfur in hydrocarbon fuels are not considered to be</t>
+  </si>
+  <si>
+    <t>"separate regulations" for purposes of this variable.</t>
+  </si>
+  <si>
+    <t>F-gases</t>
+  </si>
+  <si>
+    <t>F-gases are handled in the industry sector, not the transportation sector (even if the emissions come from vehicle</t>
+  </si>
+  <si>
+    <t>air conditioning systems), so the setting in this variable does not have any effect.  We set it to zero, so that</t>
+  </si>
+  <si>
+    <t>if F-gas emissions are added to the transportation sector in the future, they will not be influenced by fuel</t>
+  </si>
+  <si>
+    <t>economy.</t>
+  </si>
+  <si>
+    <t>(Boolean)</t>
   </si>
   <si>
     <t>VOC</t>
@@ -102,6 +239,9 @@
     <t>CO</t>
   </si>
   <si>
+    <t>NOx</t>
+  </si>
+  <si>
     <t>PM10</t>
   </si>
   <si>
@@ -120,69 +260,6 @@
     <t>N2O</t>
   </si>
   <si>
-    <t>F-gases</t>
-  </si>
-  <si>
-    <t>F-gases are handled in the industry sector, not the transportation sector (even if the emissions come from vehicle</t>
-  </si>
-  <si>
-    <t>air conditioning systems), so the setting in this variable does not have any effect.  We set it to zero, so that</t>
-  </si>
-  <si>
-    <t>if F-gas emissions are added to the transportation sector in the future, they will not be influenced by fuel</t>
-  </si>
-  <si>
-    <t>economy.</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>SOx</t>
-  </si>
-  <si>
-    <t>the reaction of NOx/NO2 and VOCs in the atmosphere.  In practice, the emissions of NOx/NO2 + VOCs are regulated,</t>
-  </si>
-  <si>
-    <t>U.S. EPA / Electronic Code of Federal Regulations</t>
-  </si>
-  <si>
-    <t>Note that in some sources, VOCs are called HCs (hydrocarbons) or NMHCs (non-methane hydrocarbons).</t>
-  </si>
-  <si>
-    <t>§1033.101 Exhaust emission standards, Table 1</t>
-  </si>
-  <si>
-    <t>https://www.ecfr.gov/cgi-bin/text-idx?SID=159ba6f126272ea1995c71a43b7af309&amp;mc=true&amp;node=pt40.36.1033&amp;rgn=div5#se40.36.1033_1101</t>
-  </si>
-  <si>
-    <t>https://nepis.epa.gov/Exe/ZyPDF.cgi/P1005ZAD.PDF?Dockey=P1005ZAD.PDF</t>
-  </si>
-  <si>
-    <t>EPA Finalizes More Stringent Standards for Control of Emissions from New Marine Compression-Ignition Engines at or Above 30 Liters per Cylinder</t>
-  </si>
-  <si>
-    <t>Page 3, the three paragraphs under the "New Clean Air Act Standards for Category 3 Engines" subheader</t>
-  </si>
-  <si>
-    <t>However, a limit on sulfur in fuel correlates with the amount of fuel burned, so lacking other control technologies,</t>
-  </si>
-  <si>
-    <t>"separate regulations" for purposes of this variable.</t>
-  </si>
-  <si>
-    <t>Where SOx is not regulated directly, it may still be regulated via the allowable sulfur content of diesel fuels.</t>
-  </si>
-  <si>
-    <t>For example, diesel fuel in the U.S. used by non-road modes must be ultra-low sulfur diesel (ULSD, below 15 ppm).</t>
-  </si>
-  <si>
-    <t>(See https://www.epa.gov/diesel-fuel-standards/diesel-fuel-standards-and-rulemakings )</t>
-  </si>
-  <si>
-    <t>SOx emissions would scale with fuel use.  Thus, limits on sulfur in hydrocarbon fuels are not considered to be</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -199,15 +276,12 @@
   </si>
   <si>
     <t>motorbikes</t>
-  </si>
-  <si>
-    <t>(Boolean)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,14 +334,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -548,24 +625,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="101.1328125" customWidth="1"/>
+    <col min="2" max="2" width="101.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -573,303 +650,393 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
+    <row r="16" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="B36" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="3">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>35</v>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{1159A5F0-0647-4C80-A557-F7505E4AB132}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{7F76F2D3-8277-4B1D-92F6-17232F2A421B}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{F2C88FDA-A370-4718-9244-385D3E42086B}"/>
+    <hyperlink ref="B27" r:id="rId4" xr:uid="{AC1C46CE-4C34-48DB-AC91-47413735EA1F}"/>
+    <hyperlink ref="B22" r:id="rId5" xr:uid="{7B1C130A-C3B5-4D66-AC89-EFCD7AA94182}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{BB7BC8DE-58CC-4671-BA38-9FC043FB6017}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{2D19B71C-E09A-43CC-9FB4-6A5447106CF8}"/>
+    <hyperlink ref="B31" r:id="rId8" xr:uid="{6D659CF2-4027-4D97-9DC3-EE75F1C5DC8B}"/>
+    <hyperlink ref="B42" r:id="rId9" xr:uid="{9507C0F8-5813-4DC4-AFC9-4FFDE51A137D}"/>
+    <hyperlink ref="B40" r:id="rId10" xr:uid="{F8B541EE-505B-4E57-AC70-0BDB773CA46E}"/>
+    <hyperlink ref="B41" r:id="rId11" xr:uid="{DE5CB99B-C830-481C-A3E1-B79127F0C808}"/>
+    <hyperlink ref="B37" r:id="rId12" xr:uid="{B09F476C-BEC6-4386-A884-5330B2B84522}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -896,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -905,12 +1072,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -937,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -946,18 +1113,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -987,9 +1154,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1007,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1028,9 +1195,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1048,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1069,9 +1236,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1113,4 +1280,285 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F2E2C9-A228-4164-9031-D28FFE5F7873}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25667ADE-297C-4B1A-8505-2DEC69FD5A2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF422-1580-4048-9C6D-691986306A53}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_EI+Agora/trans/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\SRPbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1911C4-ACC9-48DC-8478-29DA285D1462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B633D6B-94A0-4482-8CAB-52E1A4120A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33840" yWindow="-1200" windowWidth="21420" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -981,8 +981,8 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,7 +1036,7 @@
         <v>71</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>72</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1118,7 +1118,7 @@
         <v>73</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1283,26 +1283,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -1525,10 +1505,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F2E2C9-A228-4164-9031-D28FFE5F7873}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF422-1580-4048-9C6D-691986306A53}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1545,20 +1556,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF422-1580-4048-9C6D-691986306A53}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F2E2C9-A228-4164-9031-D28FFE5F7873}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\SRPbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\SRPbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B633D6B-94A0-4482-8CAB-52E1A4120A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="10710"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SRPbVT" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>SRPbVT Separately Regulated Pollutants by Vehicle Type</t>
   </si>
@@ -33,49 +45,144 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>On-Road Vehicles</t>
+    <t>Road Vehicles</t>
+  </si>
+  <si>
+    <t>Euro 6 - Light Passenger and Commercial Vehicles</t>
+  </si>
+  <si>
+    <t>COMMISSION REGULATION (EC) No 692/2008 of 18 July 2008 implementing and amending Regulation (EC) No 715/2007 of the European Parliament and of the Council on type-approval of motor vehicles with respect to emissions from light passenger and commercial vehicles (Euro 5 and Euro 6) and on access to vehicle repair and maintenance information</t>
+  </si>
+  <si>
+    <t>The Euro 6 standard sets limits for CO, total hydrocarbons, non-methane hydrocarbons, CH4, NOx, PM.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32007R0715&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32016R0427&amp;from=EN</t>
+  </si>
+  <si>
+    <t>Euro 6 - Heavy Duty Vehicles</t>
+  </si>
+  <si>
+    <t>The Euro 6 standard sets limits for CO, total hydrocarbons, non-methane hydrocarbons, CH4, NOX, NH3, PM.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32009R0595&amp;from=EN</t>
+  </si>
+  <si>
+    <t>Transport Fuels</t>
+  </si>
+  <si>
+    <t>FQD</t>
+  </si>
+  <si>
+    <t>DIRECTIVE 2009/30/EC OF THE EUROPEAN PARLIAMENT AND OF THE COUNCIL of 23 April 2009 amending Directive 98/70/EC as regards the specification of petrol, diesel and gas-oil and introducing a mechanism to monitor and reduce greenhouse gas emissions and amending Council Directive 1999/32/EC as regards the specification of fuel used by inland waterway vessels and repealing Directive 93/12/EEC</t>
+  </si>
+  <si>
+    <t>The Fuel Quality Directive sets limits for SOx</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32009L0030&amp;from=EN</t>
+  </si>
+  <si>
+    <t>Sulpher Content Directive</t>
+  </si>
+  <si>
+    <t>Directive (EU) 2016/802 — reducing the sulphur content of certain liquid fuels</t>
+  </si>
+  <si>
+    <t>This Directive aims to reduce emissions of sulphur dioxide that result from burning certain types of liquid fuels. The directive lays down the maximum permitted sulphur content of: heavy fuel oil, gas oil,
+marine gas oil; and marine diesel oil.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/?uri=celex:32016L0802</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=LEGISSUM:240305030202_1&amp;rid=1</t>
+  </si>
+  <si>
+    <t>VOC Directive</t>
+  </si>
+  <si>
+    <t>European Parliament and Council Directive 94/63/EC of 20 December 1994 on the control of volatile organic compound (VOC) emissions resulting from the storage of petrol and its distribution from terminals to service stations</t>
+  </si>
+  <si>
+    <t>The directive aims at combating air pollution by reducing VOC emissions from operations, installations, vehicles and vessels used for storage, loading and transport of petrol from one terminal to another, or from a terminal to a service station. The directive does not cover the refuelling of vehicles at service stations.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:31994L0063&amp;from=EN</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Concern is focused on the potential health and environmental effects of air pollution from emissions such as oxides of nitrogen (NOx), volatile organic compounds and particulates. The ICAO technical design standards limit emissions of NOx, carbon monoxide (CO) and unburnt hydrocarbons (HFC).
+Although there is no specific EU legislation in relation to aviation emissions, the general EU legislation establishing limit values for the concerned pollutants (mainly NOx and particulates in the case of aircraft emissions), being  Directive 2008/50/EC on ambient air quality and cleaner air for Europe  and developing legislation, applies at and around airports just as they do everywhere else in the EU.
+Likewise, in February 2016, the ICAO developed a CO 2 standard for aircraft with the support of the CAEP. This Standard is a key element of the ICAO’s "basket of measures" aimed at tackling the impact of international aviation on climate change. Compliance with these requirements will become a pre-requisite for the issuance of an aircraft or aircraft engine EASA Type Certificate, which is required to operate aircraft. The standard will be applicable as of 2020.</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/transport/modes/air/environment/air_quality_en</t>
+  </si>
+  <si>
+    <t>Rail and Ships</t>
+  </si>
+  <si>
+    <t>NRMM Regulation</t>
+  </si>
+  <si>
+    <t>Regulation (EU) 2016/1628 on requirements relating to gaseous and particulate pollutant emission limits and type-approval for internal combustion engines for non-road mobile machinery.</t>
+  </si>
+  <si>
+    <t>The Directive sets emission limit values for CO, HC, NOx, and particulate matter. The main method
+of controlling emissions under the Directive is through the system of engine type-approval, a system
+that has stood the test of time for approvals for road vehicles and their components. A new element
+introduced to the engine type-approval regime by this Directive is the approval of a parent engine on
+behalf of a group of engines (engine family) built using similar components according to similar
+construction principles.</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:32016R1628&amp;from=EN</t>
+  </si>
+  <si>
+    <t>Additional Resources</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/environment/air/sources/road.htm</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/growth/sectors/automotive/environment-protection/non-road-mobile-machinery_en</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/environment/air/pdf/air.pdf</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>https://www.epa.gov/criteria-air-pollutants/naaqs-table</t>
-  </si>
-  <si>
-    <t>NAAQS Table</t>
-  </si>
-  <si>
-    <t>Ships</t>
-  </si>
-  <si>
-    <t>undated (current as of 2018)</t>
-  </si>
-  <si>
-    <t>Aircraft</t>
-  </si>
-  <si>
-    <t>https://www.epa.gov/regulations-emissions-vehicles-and-engines/regulations-emissions-aircraft</t>
-  </si>
-  <si>
-    <t>Regulations for Emissions from Aircraft</t>
-  </si>
-  <si>
-    <t>Rail</t>
-  </si>
-  <si>
-    <t>Regulations for Emissions from Locomotives</t>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO2 is never considered a separately-regulated pollutant.  This variable's name refers to pollutants that are</t>
+  </si>
+  <si>
+    <t>regulated "separately" from CO2 (irrespective of whether a country uses CO2 or fuel economy standards).</t>
+  </si>
+  <si>
+    <t>VOCs</t>
   </si>
   <si>
     <t>Although VOCs are not specifically named as a criteria pollutant, ozone is names, and ozone is formed from</t>
   </si>
   <si>
+    <t>the reaction of NOx/NO2 and VOCs in the atmosphere.  In practice, the emissions of NOx/NO2 + VOCs are regulated,</t>
+  </si>
+  <si>
     <t>so we consider VOCs to be a separately-regulated pollutant whenever NOx/NO2 is separately-regulated.</t>
   </si>
   <si>
-    <t>VOCs</t>
+    <t>Note that in some sources, VOCs are called HCs (hydrocarbons) or NMHCs (non-methane hydrocarbons).</t>
   </si>
   <si>
     <t>BC, OC</t>
@@ -87,13 +194,43 @@
     <t>PM is separately-regulated.</t>
   </si>
   <si>
-    <t>CO2 is never considered a separately-regulated pollutant.  This variable's name refers to pollutants that are</t>
-  </si>
-  <si>
-    <t>regulated "separately" from CO2 (irrespective of whether a country uses CO2 or fuel economy standards).</t>
-  </si>
-  <si>
-    <t>CO2</t>
+    <t>SOx</t>
+  </si>
+  <si>
+    <t>Where SOx is not regulated directly, it may still be regulated via the allowable sulfur content of diesel fuels.</t>
+  </si>
+  <si>
+    <t>For example, diesel fuel in the U.S. used by non-road modes must be ultra-low sulfur diesel (ULSD, below 15 ppm).</t>
+  </si>
+  <si>
+    <t>(See https://www.epa.gov/diesel-fuel-standards/diesel-fuel-standards-and-rulemakings )</t>
+  </si>
+  <si>
+    <t>However, a limit on sulfur in fuel correlates with the amount of fuel burned, so lacking other control technologies,</t>
+  </si>
+  <si>
+    <t>SOx emissions would scale with fuel use.  Thus, limits on sulfur in hydrocarbon fuels are not considered to be</t>
+  </si>
+  <si>
+    <t>"separate regulations" for purposes of this variable.</t>
+  </si>
+  <si>
+    <t>F-gases</t>
+  </si>
+  <si>
+    <t>F-gases are handled in the industry sector, not the transportation sector (even if the emissions come from vehicle</t>
+  </si>
+  <si>
+    <t>air conditioning systems), so the setting in this variable does not have any effect.  We set it to zero, so that</t>
+  </si>
+  <si>
+    <t>if F-gas emissions are added to the transportation sector in the future, they will not be influenced by fuel</t>
+  </si>
+  <si>
+    <t>economy.</t>
+  </si>
+  <si>
+    <t>(Boolean)</t>
   </si>
   <si>
     <t>VOC</t>
@@ -102,6 +239,9 @@
     <t>CO</t>
   </si>
   <si>
+    <t>NOx</t>
+  </si>
+  <si>
     <t>PM10</t>
   </si>
   <si>
@@ -120,69 +260,6 @@
     <t>N2O</t>
   </si>
   <si>
-    <t>F-gases</t>
-  </si>
-  <si>
-    <t>F-gases are handled in the industry sector, not the transportation sector (even if the emissions come from vehicle</t>
-  </si>
-  <si>
-    <t>air conditioning systems), so the setting in this variable does not have any effect.  We set it to zero, so that</t>
-  </si>
-  <si>
-    <t>if F-gas emissions are added to the transportation sector in the future, they will not be influenced by fuel</t>
-  </si>
-  <si>
-    <t>economy.</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>SOx</t>
-  </si>
-  <si>
-    <t>the reaction of NOx/NO2 and VOCs in the atmosphere.  In practice, the emissions of NOx/NO2 + VOCs are regulated,</t>
-  </si>
-  <si>
-    <t>U.S. EPA / Electronic Code of Federal Regulations</t>
-  </si>
-  <si>
-    <t>Note that in some sources, VOCs are called HCs (hydrocarbons) or NMHCs (non-methane hydrocarbons).</t>
-  </si>
-  <si>
-    <t>§1033.101 Exhaust emission standards, Table 1</t>
-  </si>
-  <si>
-    <t>https://www.ecfr.gov/cgi-bin/text-idx?SID=159ba6f126272ea1995c71a43b7af309&amp;mc=true&amp;node=pt40.36.1033&amp;rgn=div5#se40.36.1033_1101</t>
-  </si>
-  <si>
-    <t>https://nepis.epa.gov/Exe/ZyPDF.cgi/P1005ZAD.PDF?Dockey=P1005ZAD.PDF</t>
-  </si>
-  <si>
-    <t>EPA Finalizes More Stringent Standards for Control of Emissions from New Marine Compression-Ignition Engines at or Above 30 Liters per Cylinder</t>
-  </si>
-  <si>
-    <t>Page 3, the three paragraphs under the "New Clean Air Act Standards for Category 3 Engines" subheader</t>
-  </si>
-  <si>
-    <t>However, a limit on sulfur in fuel correlates with the amount of fuel burned, so lacking other control technologies,</t>
-  </si>
-  <si>
-    <t>"separate regulations" for purposes of this variable.</t>
-  </si>
-  <si>
-    <t>Where SOx is not regulated directly, it may still be regulated via the allowable sulfur content of diesel fuels.</t>
-  </si>
-  <si>
-    <t>For example, diesel fuel in the U.S. used by non-road modes must be ultra-low sulfur diesel (ULSD, below 15 ppm).</t>
-  </si>
-  <si>
-    <t>(See https://www.epa.gov/diesel-fuel-standards/diesel-fuel-standards-and-rulemakings )</t>
-  </si>
-  <si>
-    <t>SOx emissions would scale with fuel use.  Thus, limits on sulfur in hydrocarbon fuels are not considered to be</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -199,15 +276,12 @@
   </si>
   <si>
     <t>motorbikes</t>
-  </si>
-  <si>
-    <t>(Boolean)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,14 +334,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -548,24 +625,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="101.1328125" customWidth="1"/>
+    <col min="2" max="2" width="101.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -573,300 +650,390 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
+    <row r="16" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="B36" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="3">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>35</v>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{1159A5F0-0647-4C80-A557-F7505E4AB132}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{7F76F2D3-8277-4B1D-92F6-17232F2A421B}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{F2C88FDA-A370-4718-9244-385D3E42086B}"/>
+    <hyperlink ref="B27" r:id="rId4" xr:uid="{AC1C46CE-4C34-48DB-AC91-47413735EA1F}"/>
+    <hyperlink ref="B22" r:id="rId5" xr:uid="{7B1C130A-C3B5-4D66-AC89-EFCD7AA94182}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{BB7BC8DE-58CC-4671-BA38-9FC043FB6017}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{2D19B71C-E09A-43CC-9FB4-6A5447106CF8}"/>
+    <hyperlink ref="B31" r:id="rId8" xr:uid="{6D659CF2-4027-4D97-9DC3-EE75F1C5DC8B}"/>
+    <hyperlink ref="B42" r:id="rId9" xr:uid="{9507C0F8-5813-4DC4-AFC9-4FFDE51A137D}"/>
+    <hyperlink ref="B40" r:id="rId10" xr:uid="{F8B541EE-505B-4E57-AC70-0BDB773CA46E}"/>
+    <hyperlink ref="B41" r:id="rId11" xr:uid="{DE5CB99B-C830-481C-A3E1-B79127F0C808}"/>
+    <hyperlink ref="B37" r:id="rId12" xr:uid="{B09F476C-BEC6-4386-A884-5330B2B84522}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -896,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -905,9 +1072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -937,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -946,18 +1113,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -987,9 +1154,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1007,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1028,9 +1195,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1048,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1069,9 +1236,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1113,4 +1280,285 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17CAF422-1580-4048-9C6D-691986306A53}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25667ADE-297C-4B1A-8505-2DEC69FD5A2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F2E2C9-A228-4164-9031-D28FFE5F7873}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>